--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,10 +310,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>82</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,7 +491,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation</t>
+    <t>Identificación para la observación</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -576,7 +576,7 @@
     <t>Estado de la observación, por defecto DEBE ser registered</t>
   </si>
   <si>
-    <t>The status of the result value.</t>
+    <t>Estado de la observación</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -591,7 +591,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
+    <t>Códigos provistos para el estado de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -631,7 +631,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
+    <t>Códigos de alto nivel para la categoría de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
@@ -946,7 +946,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>Sobre Quien o Que se esta realizando la observación</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -1035,7 +1035,7 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
+    <t>Tiempo/Tiempo-periodo de relevancia clínica para la observación</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1103,11 +1103,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|CareTeam|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t>Quien es responsable por la observación</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1202,10 +1202,10 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+    <t>Alta, baja, normal, etc</t>
+  </si>
+  <si>
+    <t>Interpretación del valor de la observación</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
@@ -1214,7 +1214,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
+    <t>Códigos de identificción para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1239,7 +1239,7 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation</t>
+    <t>Comentarios sobre la observación</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -1325,7 +1325,7 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
+    <t>Muestra tomada para la observación</t>
   </si>
   <si>
     <t>The specimen that was used when this observation was made.</t>
@@ -1549,17 +1549,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreObservacionCL|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
+    <t>Grupo de recursos relacionados a la observación</t>
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1590,7 +1590,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
+    <t>Componentes de los resultados</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1620,7 +1620,7 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
+    <t>Tipo de componente de la observación (code/type)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
@@ -1629,7 +1629,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>Códigos de identficación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -1642,7 +1642,7 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Actual component result</t>
+    <t>Actual Resultado del componente</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1665,6 +1665,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Interpretación del valor del componente de la observación</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2012,7 +2015,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="164.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3272,7 +3275,7 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>82</v>
@@ -7008,7 +7011,7 @@
         <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
@@ -7372,7 +7375,7 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7736,7 +7739,7 @@
         <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -7858,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -8222,7 +8225,7 @@
         <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
@@ -9662,7 +9665,7 @@
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
@@ -9902,7 +9905,7 @@
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>82</v>
@@ -10384,7 +10387,7 @@
         <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10506,7 +10509,7 @@
         <v>93</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
@@ -10750,7 +10753,7 @@
         <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -10765,7 +10768,7 @@
         <v>381</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>382</v>
+        <v>529</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>383</v>
@@ -10855,10 +10858,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10884,10 +10887,10 @@
         <v>83</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>441</v>
@@ -10942,7 +10945,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -946,7 +946,7 @@
 </t>
   </si>
   <si>
-    <t>Sobre Quien o Que se esta realizando la observación</t>
+    <t>Sobre Quien o Que se está realizando la observación</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -1214,7 +1214,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Códigos de identificción para la interpretación de la observación</t>
+    <t>Códigos de identificación para la interpretación de la observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1629,7 +1629,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Códigos de identficación simple para el nombre de una observación</t>
+    <t>Códigos de identificación simple para el nombre de una observación</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -2029,7 +2029,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="64.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-ObservationResultadoExamen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2005,15 +2005,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2024,28 +2024,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.65234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="214.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
